--- a/BenadrylAutomation/src/test/resources/TestData/SafetyInformationTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/SafetyInformationTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-69\git\BenadrylAutomation\BenadrylAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4DCC58-0076-484B-9B88-EDBB8EA910B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6387E-C718-48F4-AD0B-C20A703AC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urlAndTitle" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>yes</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Our Ingredients</t>
-  </si>
-  <si>
-    <t>benadryl-difference/diphenhydramine-active-ingredient</t>
-  </si>
-  <si>
-    <t>Expected Banner link</t>
   </si>
   <si>
     <t>Heading</t>
@@ -540,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -552,12 +546,11 @@
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -579,13 +572,10 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57.6">
+    </row>
+    <row r="2" spans="1:7" ht="57.6">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -594,19 +584,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B810BC-E2E1-4279-B7F8-1C6F922E0AB7}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -645,15 +632,15 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -662,18 +649,18 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -682,18 +669,18 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -702,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -751,24 +738,24 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -777,27 +764,27 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -806,27 +793,27 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -835,22 +822,22 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -892,13 +879,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -906,7 +893,7 @@
     </row>
     <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -915,24 +902,24 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -941,16 +928,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>

--- a/BenadrylAutomation/src/test/resources/TestData/SafetyInformationTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/SafetyInformationTestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-69\git\BenadrylAutomation\BenadrylAutomation\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6387E-C718-48F4-AD0B-C20A703AC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="urlAndTitle" sheetId="1" r:id="rId1"/>
@@ -25,57 +19,84 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Sub Menu</t>
+  </si>
+  <si>
+    <t>Expected Url</t>
+  </si>
+  <si>
+    <t>Expected Title</t>
+  </si>
+  <si>
+    <t>Expected Description</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to correct url after clicking on 'SAFETY INFORMATION' in the main horizontal menu and check if the banner title and description is correct</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>Expected Url</t>
-  </si>
-  <si>
-    <t>Expected Title</t>
-  </si>
-  <si>
-    <t>Expected Description</t>
-  </si>
-  <si>
-    <t>benadryl-difference/ingredients-transparency</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Sub Menu</t>
-  </si>
-  <si>
     <t>Benadryl Difference</t>
   </si>
   <si>
-    <t>Our Ingredients</t>
+    <t>Safety Information</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>Safety Is Our Top Priority</t>
+  </si>
+  <si>
+    <t>The safety of the people who use our products is our top priority. As with any medicine, abuse or misuse can lead to serious side effects with potentially long-lasting or even life-threatening consequences. All medications should be kept out of the reach of children at all times.</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Expected link</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "Poison contol cemter" link navigated to the proper url</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>https://www.poison.org/</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "FAQ's page" link navigated to the proper url</t>
+  </si>
+  <si>
+    <t>Faq</t>
+  </si>
+  <si>
+    <t>faq#safe-uses</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "Benadryl dosage" link navigated to the proper url</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>benadryl-dosing-guide</t>
   </si>
   <si>
     <t>Heading</t>
   </si>
   <si>
-    <t>Read more button</t>
-  </si>
-  <si>
-    <t>Benadryl Uses</t>
-  </si>
-  <si>
-    <t>benadryl-difference/uses-indications</t>
-  </si>
-  <si>
-    <t>benadryl-dosing-guide</t>
-  </si>
-  <si>
-    <t>Content name</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -86,6 +107,44 @@
   </si>
   <si>
     <t>Product name</t>
+  </si>
+  <si>
+    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "Benadryl itch stopping gel extra strength" redirecting to the correct URL, Ages and buy now button</t>
+  </si>
+  <si>
+    <t>Benadryl® Products</t>
+  </si>
+  <si>
+    <t>benadryl-itch-stopping-gel-extra-strength</t>
+  </si>
+  <si>
+    <t>products/benadryl-itch-stopping-gel-extra-strength</t>
+  </si>
+  <si>
+    <t>Ages 
+2+</t>
+  </si>
+  <si>
+    <t>Benadryl Itch Stopping Gel, Extra Strength, 3.5 Fl. Oz</t>
+  </si>
+  <si>
+    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "childrens benadryl dye free allergy liquid" redirecting to the correct URL, Ages and buy now button</t>
+  </si>
+  <si>
+    <t>childrens-benadryl-dye-free-allergy-liquid</t>
+  </si>
+  <si>
+    <t>products/childrens-benadryl-dye-free-allergy-liquid</t>
+  </si>
+  <si>
+    <t>Ages 
+6-11</t>
+  </si>
+  <si>
+    <t>Children's Benadryl Dye-Free Allergy Liquid, Bubble Gum-Flavored, 4 Fl. Oz</t>
+  </si>
+  <si>
+    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "Benadryl allergy ultratabs tablets" redirecting to the correct URL, Ages and buy now button</t>
   </si>
   <si>
     <t>benadryl-allergy-ultratabs-tablets</t>
@@ -101,109 +160,50 @@
     <t>Benadryl Allergy Ultratabs Tablets, 48 Count</t>
   </si>
   <si>
-    <t>Ages 
-2+</t>
-  </si>
-  <si>
-    <t>Safety Information</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>Safety Is Our Top Priority</t>
-  </si>
-  <si>
-    <t>The safety of the people who use our products is our top priority. As with any medicine, abuse or misuse can lead to serious side effects with potentially long-lasting or even life-threatening consequences. All medications should be kept out of the reach of children at all times.</t>
-  </si>
-  <si>
-    <t>Verify user is redirected to correct url after clicking on 'SAFETY INFORMATION' in the main horizontal menu and check if the banner title and description is correct</t>
-  </si>
-  <si>
-    <t>Benadryl® Products</t>
+    <t>Content name</t>
+  </si>
+  <si>
+    <t>Read more button</t>
+  </si>
+  <si>
+    <t>Check if the heading "RELATED ARTICLES" is correct and ensure that the content titled "Benadryl Uses" is followed by the read more link redirecting to the correct URL</t>
   </si>
   <si>
     <t>Related Articles</t>
   </si>
   <si>
+    <t>Benadryl Uses</t>
+  </si>
+  <si>
     <t>uses-indications</t>
   </si>
   <si>
+    <t>benadryl-difference/uses-indications</t>
+  </si>
+  <si>
+    <t>Check if the heading "RELATED ARTICLES" is correct and ensure that the content titled "Our Ingredients" is followed by the read more link redirecting to the correct URL</t>
+  </si>
+  <si>
+    <t>Our Ingredients</t>
+  </si>
+  <si>
     <t>ingredients-transparency</t>
   </si>
   <si>
-    <t>Check if the heading "RELATED ARTICLES" is correct and ensure that the content titled "Benadryl Uses" is followed by the read more link redirecting to the correct URL</t>
-  </si>
-  <si>
-    <t>Check if the heading "RELATED ARTICLES" is correct and ensure that the content titled "Our Ingredients" is followed by the read more link redirecting to the correct URL</t>
-  </si>
-  <si>
-    <t>benadryl-itch-stopping-gel-extra-strength</t>
-  </si>
-  <si>
-    <t>childrens-benadryl-dye-free-allergy-liquid</t>
-  </si>
-  <si>
-    <t>products/benadryl-itch-stopping-gel-extra-strength</t>
-  </si>
-  <si>
-    <t>products/childrens-benadryl-dye-free-allergy-liquid</t>
-  </si>
-  <si>
-    <t>Ages 
-6-11</t>
-  </si>
-  <si>
-    <t>Benadryl Itch Stopping Gel, Extra Strength, 3.5 Fl. Oz</t>
-  </si>
-  <si>
-    <t>Children's Benadryl Dye-Free Allergy Liquid, Bubble Gum-Flavored, 4 Fl. Oz</t>
-  </si>
-  <si>
-    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "Benadryl allergy ultratabs tablets" redirecting to the correct URL, Ages and buy now button</t>
-  </si>
-  <si>
-    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "Benadryl itch stopping gel extra strength" redirecting to the correct URL, Ages and buy now button</t>
-  </si>
-  <si>
-    <t>Verify that the header "RELATED® PRODUCTS" displayed correctly followed by the product "childrens benadryl dye free allergy liquid" redirecting to the correct URL, Ages and buy now button</t>
-  </si>
-  <si>
-    <t>Expected link</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>Faq</t>
-  </si>
-  <si>
-    <t>Dosage</t>
-  </si>
-  <si>
-    <t>https://www.poison.org/</t>
-  </si>
-  <si>
-    <t>faq#safe-uses</t>
-  </si>
-  <si>
-    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "Poison contol cemter" link navigated to the proper url</t>
-  </si>
-  <si>
-    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "FAQ's page" link navigated to the proper url</t>
-  </si>
-  <si>
-    <t>Verify user is redirected to 'Safety Information' page and check after clicking on "Benadryl dosage" link navigated to the proper url</t>
+    <t>benadryl-difference/ingredients-transparency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,19 +215,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,42 +565,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,422 +1144,431 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.4380952380952" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.4380952380952" customWidth="1"/>
+    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="62.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57.6">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B810BC-E2E1-4279-B7F8-1C6F922E0AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="77.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="77.8857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.4380952380952" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.4380952380952" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.1047619047619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88571428571429" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+    <row r="1" ht="30" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
+    <row r="3" ht="30" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
+    <row r="4" ht="30" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025EE04A-2421-4C2E-8D84-D61329D882B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.4380952380952" customWidth="1"/>
+    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="39.7809523809524" customWidth="1"/>
+    <col min="7" max="7" width="47.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="4.78095238095238" customWidth="1"/>
+    <col min="9" max="9" width="58.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2">
-      <c r="A2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
-      <c r="A3" s="5" t="s">
-        <v>46</v>
+    <row r="3" ht="60" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="5" t="s">
+    </row>
+    <row r="4" ht="60" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39772CEB-57E5-4057-8EE0-79B8C9CF9438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="72.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.4380952380952" customWidth="1"/>
+    <col min="5" max="5" width="13.7809523809524" customWidth="1"/>
+    <col min="6" max="6" width="13.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="21.4380952380952" customWidth="1"/>
+    <col min="8" max="8" width="38.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
+    <row r="3" ht="45" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>